--- a/va_facility_data_2025-02-20/Fremont VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fremont%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fremont VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fremont%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4531cfd2c30147fe80f1d94fbb656a62"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfc0d41e1cf624cddb5015213354dee27"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R19dc29b535304217987161bc92e68244"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2fadf5851b28405188eb5d3b41438b06"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1b1738ee132c43189170d24f552d0153"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rec30aebb24884a0d808af9824922c610"/>
   </x:sheets>
 </x:workbook>
 </file>
